--- a/rasa_python/API.xlsx
+++ b/rasa_python/API.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53A692D-F3D8-3148-B619-0257C0981ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515C2A99-88A2-D848-BA0D-EE98B4A54F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28060" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28020" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
+    <sheet name="view指令" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>API Name</t>
   </si>
@@ -176,13 +177,139 @@
 "message":String
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityRecognition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL+/entity_recogntion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"zh_text":String,
+"en_text":String
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自動萃取實體</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Rasa_zh":Json,
+"Rasa_en":Json
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view名稱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合併表名稱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Intent
+IntentUserQuestion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE VIEW test AS
+    SELECT 
+        intent.IntentID,intent.Intent,
+        intent_u_q.UserQuestionID,intent_u_q.UserQuestion,intent_u_q.English_UserQuestion
+    FROM
+        Intent intent
+            INNER JOIN
+        IntentUserQuestion intent_u_q ON intent.IntentID = intent_u_q.IntentID
+    WHERE 
+        intent.DeleteStatus=0 and intent_u_q.DeleteStatus=0
+    ORDER BY intent.IntentID DESC;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityRelation
+ EntityClass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">test2 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE VIEW test2 AS
+    SELECT 
+        er.UserQuestionID,er.EntityClassID,
+        ec.EntityClass
+    FROM
+        EntityRelation er
+            INNER JOIN
+        EntityClass ec ON er.EntityClassID = ec.EntityClassID
+    WHERE 
+        er.DeleteStatus=0 and ec.DeleteStatus=0
+    ORDER BY er.UserQuestionID;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE VIEW rasa_view AS
+    SELECT 
+        t.IntentID,t.Intent,t.UserQuestionID,t.UserQuestion,t.English_UserQuestion,
+        t2.EntityClassID,t2.EntityClass
+    FROM
+        test t
+            LEFT JOIN
+        test2 t2 ON t.UserQuestionID = t2.UserQuestionID
+    ORDER BY t.UserQuestionID;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test
+test2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rasa_view</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE VIEW entity_view AS
+    SELECT 
+        e.EntityID,e.zh_Entity,e.en_Entity,e.EntityClassID,
+        ec.EntityClass
+    FROM
+        Entity e
+            INNER JOIN
+        EntityClass ec ON e.EntityClassID = ec.EntityClassID
+    WHERE 
+        e.DeleteStatus=0 and ec.DeleteStatus=0
+    ORDER BY e.EntityID;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity
+EntityClass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>entity_view</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +357,22 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
@@ -295,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,6 +466,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -603,16 +760,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.59765625" bestFit="1" customWidth="1"/>
@@ -629,7 +786,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1">
-        <v>20210630</v>
+        <v>20210706</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -856,9 +1013,134 @@
         <v>23</v>
       </c>
     </row>
+    <row r="9" spans="1:12" ht="60">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BE4869-F991-C646-821F-AD81604BA12A}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="81" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.59765625" customWidth="1"/>
+    <col min="3" max="3" width="113.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="176">
+      <c r="A2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="176">
+      <c r="A3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="144">
+      <c r="A4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="176">
+      <c r="A5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>